--- a/results/acl/xlm-roberta/results_pos.xlsx
+++ b/results/acl/xlm-roberta/results_pos.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aturt\Documents\typology_of_crosslingual\results\acl\xlm-roberta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -19,55 +24,55 @@
     <t>Language</t>
   </si>
   <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Slovak</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>Basque</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>Algerian</t>
+  </si>
+  <si>
+    <t>Maltese</t>
+  </si>
+  <si>
     <t>German</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>Slovak</t>
-  </si>
-  <si>
-    <t>Norwegian</t>
-  </si>
-  <si>
-    <t>Greek</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>Vietnamese</t>
-  </si>
-  <si>
-    <t>Indonesian</t>
-  </si>
-  <si>
-    <t>Finnish</t>
-  </si>
-  <si>
-    <t>Basque</t>
-  </si>
-  <si>
-    <t>Korean</t>
-  </si>
-  <si>
-    <t>Japanese</t>
-  </si>
-  <si>
-    <t>Turkish</t>
-  </si>
-  <si>
-    <t>Arabic</t>
-  </si>
-  <si>
-    <t>Hebrew</t>
-  </si>
-  <si>
-    <t>Algerian</t>
-  </si>
-  <si>
-    <t>Maltese</t>
   </si>
   <si>
     <t>Thai</t>
@@ -79,8 +84,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,11 +148,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -189,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,9 +234,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,6 +269,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,223 +445,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.9076511058780071</v>
+        <v>0.90428037124255434</v>
       </c>
       <c r="C2">
-        <v>0.8226439488387126</v>
+        <v>0.82264394883871261</v>
       </c>
       <c r="D2">
-        <v>0.7632636099182712</v>
+        <v>0.76326360991827125</v>
       </c>
       <c r="E2">
-        <v>0.8141478505794894</v>
+        <v>0.81414785057948935</v>
       </c>
       <c r="F2">
-        <v>0.8193193886503209</v>
+        <v>0.81931938865032095</v>
       </c>
       <c r="G2">
-        <v>0.6413168952301797</v>
+        <v>0.64131689523017965</v>
       </c>
       <c r="H2">
-        <v>0.5425959274137693</v>
+        <v>0.54259592741376927</v>
       </c>
       <c r="I2">
-        <v>0.752274091517754</v>
+        <v>0.75227409151775404</v>
       </c>
       <c r="J2">
-        <v>0.6939557648797156</v>
+        <v>0.69395576487971555</v>
       </c>
       <c r="K2">
-        <v>0.6444105831832664</v>
+        <v>0.64441058318326638</v>
       </c>
       <c r="L2">
-        <v>0.598051438334026</v>
+        <v>0.59805143833402596</v>
       </c>
       <c r="M2">
         <v>0.5526157824260054</v>
       </c>
       <c r="N2">
-        <v>0.6839820843145403</v>
+        <v>0.68398208431454033</v>
       </c>
       <c r="O2">
-        <v>0.6508288313247449</v>
+        <v>0.65082883132474489</v>
       </c>
       <c r="P2">
-        <v>0.7581382462945007</v>
+        <v>0.75813824629450066</v>
       </c>
       <c r="Q2">
-        <v>0.6963568361268874</v>
+        <v>0.69635683612688737</v>
       </c>
       <c r="R2">
-        <v>0.4888026965877084</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>0.48880269658770842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1856264735601212</v>
+        <v>0.81378410239137755</v>
       </c>
       <c r="C3">
         <v>0.8960929605927922</v>
       </c>
       <c r="D3">
-        <v>0.8161839003031324</v>
+        <v>0.81618390030313237</v>
       </c>
       <c r="E3">
-        <v>0.8508336140114516</v>
+        <v>0.85083361401145163</v>
       </c>
       <c r="F3">
-        <v>0.7980801616705961</v>
+        <v>0.79808016167059614</v>
       </c>
       <c r="G3">
-        <v>0.5787302121926574</v>
+        <v>0.57873021219265741</v>
       </c>
       <c r="H3">
-        <v>0.5846244526776693</v>
+        <v>0.58462445267766927</v>
       </c>
       <c r="I3">
-        <v>0.7593465813405187</v>
+        <v>0.75934658134051869</v>
       </c>
       <c r="J3">
-        <v>0.5955708992926911</v>
+        <v>0.59557089929269114</v>
       </c>
       <c r="K3">
-        <v>0.5741411249578983</v>
+        <v>0.57414112495789826</v>
       </c>
       <c r="L3">
-        <v>0.515998652745032</v>
+        <v>0.51599865274503198</v>
       </c>
       <c r="M3">
-        <v>0.5028629168070057</v>
+        <v>0.50286291680700568</v>
       </c>
       <c r="N3">
-        <v>0.6033597170764567</v>
+        <v>0.60335971707645675</v>
       </c>
       <c r="O3">
-        <v>0.6574604243853149</v>
+        <v>0.65746042438531493</v>
       </c>
       <c r="P3">
-        <v>0.7649461098012799</v>
+        <v>0.76494610980127986</v>
       </c>
       <c r="Q3">
-        <v>0.7121505557426743</v>
+        <v>0.71215055574267427</v>
       </c>
       <c r="R3">
-        <v>0.4090602896598181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>0.40906028965981811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6011667178385017</v>
+        <v>0.8269112680380718</v>
       </c>
       <c r="C4">
         <v>0.8875498925391464</v>
       </c>
       <c r="D4">
-        <v>0.9636935830518882</v>
+        <v>0.96369358305188824</v>
       </c>
       <c r="E4">
-        <v>0.856002456248081</v>
+        <v>0.85600245624808102</v>
       </c>
       <c r="F4">
-        <v>0.8171630334663801</v>
+        <v>0.81716303346638008</v>
       </c>
       <c r="G4">
-        <v>0.68360454405895</v>
+        <v>0.68360454405894999</v>
       </c>
       <c r="H4">
         <v>0.6137549892539147</v>
       </c>
       <c r="I4">
-        <v>0.762818544673012</v>
+        <v>0.76281854467301202</v>
       </c>
       <c r="J4">
-        <v>0.7866134479582437</v>
+        <v>0.78661344795824373</v>
       </c>
       <c r="K4">
-        <v>0.7462388701258827</v>
+        <v>0.74623887012588275</v>
       </c>
       <c r="L4">
-        <v>0.618053423395763</v>
+        <v>0.61805342339576297</v>
       </c>
       <c r="M4">
-        <v>0.6328676696346331</v>
+        <v>0.63286766963463315</v>
       </c>
       <c r="N4">
-        <v>0.7411728584587043</v>
+        <v>0.74117285845870429</v>
       </c>
       <c r="O4">
         <v>0.7724132637396377</v>
@@ -655,475 +672,475 @@
         <v>0.7645072152287381</v>
       </c>
       <c r="Q4">
-        <v>0.7322689591648757</v>
+        <v>0.73226895916487567</v>
       </c>
       <c r="R4">
-        <v>0.6486797666564323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>0.64867976665643234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7314289528131883</v>
+        <v>0.86748314756724287</v>
       </c>
       <c r="C5">
-        <v>0.8573383167589935</v>
+        <v>0.85733831675899352</v>
       </c>
       <c r="D5">
-        <v>0.7851231395581659</v>
+        <v>0.78512313955816593</v>
       </c>
       <c r="E5">
-        <v>0.9770740172195155</v>
+        <v>0.97707401721951548</v>
       </c>
       <c r="F5">
-        <v>0.8065474204097978</v>
+        <v>0.80654742040979777</v>
       </c>
       <c r="G5">
-        <v>0.6814389641593807</v>
+        <v>0.68143896415938066</v>
       </c>
       <c r="H5">
-        <v>0.5748514983648134</v>
+        <v>0.57485149836481342</v>
       </c>
       <c r="I5">
-        <v>0.8159247146766335</v>
+        <v>0.81592471467663352</v>
       </c>
       <c r="J5">
-        <v>0.7490155509577521</v>
+        <v>0.74901555095775207</v>
       </c>
       <c r="K5">
         <v>0.6452980044049923</v>
       </c>
       <c r="L5">
-        <v>0.5827270907027965</v>
+        <v>0.58272709070279649</v>
       </c>
       <c r="M5">
-        <v>0.5233264366281786</v>
+        <v>0.52332643662817857</v>
       </c>
       <c r="N5">
-        <v>0.6628178602416072</v>
+        <v>0.66281786024160716</v>
       </c>
       <c r="O5">
-        <v>0.6919842488153241</v>
+        <v>0.69198424881532405</v>
       </c>
       <c r="P5">
-        <v>0.7884936261095908</v>
+        <v>0.78849362610959084</v>
       </c>
       <c r="Q5">
-        <v>0.6943536007475138</v>
+        <v>0.69435360074751384</v>
       </c>
       <c r="R5">
-        <v>0.4543482613628779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>0.45434826136287793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6883354696941952</v>
+        <v>0.82219373741073065</v>
       </c>
       <c r="C6">
-        <v>0.8205456876030031</v>
+        <v>0.82054568760300306</v>
       </c>
       <c r="D6">
-        <v>0.7781541842153452</v>
+        <v>0.77815418421534521</v>
       </c>
       <c r="E6">
-        <v>0.7795275590551181</v>
+        <v>0.77952755905511806</v>
       </c>
       <c r="F6">
-        <v>0.9749130195934811</v>
+        <v>0.97491301959348109</v>
       </c>
       <c r="G6">
-        <v>0.582219373741073</v>
+        <v>0.58221937374107302</v>
       </c>
       <c r="H6">
-        <v>0.4966123420618934</v>
+        <v>0.49661234206189342</v>
       </c>
       <c r="I6">
-        <v>0.6662699139351768</v>
+        <v>0.66626991393517676</v>
       </c>
       <c r="J6">
-        <v>0.6705731550997985</v>
+        <v>0.67057315509979853</v>
       </c>
       <c r="K6">
-        <v>0.6035524629188793</v>
+        <v>0.60355246291887932</v>
       </c>
       <c r="L6">
-        <v>0.5451382530672038</v>
+        <v>0.54513825306720376</v>
       </c>
       <c r="M6">
-        <v>0.4956052005127266</v>
+        <v>0.49560520051272661</v>
       </c>
       <c r="N6">
         <v>0.6399011170115364</v>
       </c>
       <c r="O6">
-        <v>0.6653543307086615</v>
+        <v>0.66535433070866146</v>
       </c>
       <c r="P6">
-        <v>0.7207471159128365</v>
+        <v>0.72074711591283647</v>
       </c>
       <c r="Q6">
-        <v>0.6539095403772203</v>
+        <v>0.65390954037722027</v>
       </c>
       <c r="R6">
         <v>0.4848013184398462</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2128881625029185</v>
+        <v>0.53616623861779122</v>
       </c>
       <c r="C7">
-        <v>0.4161568993696008</v>
+        <v>0.41615689936960082</v>
       </c>
       <c r="D7">
-        <v>0.3770254494513192</v>
+        <v>0.37702544945131922</v>
       </c>
       <c r="E7">
         <v>0.6134485173943498</v>
       </c>
       <c r="F7">
-        <v>0.6109269203829092</v>
+        <v>0.61092692038290919</v>
       </c>
       <c r="G7">
-        <v>0.9408825589540042</v>
+        <v>0.94088255895400419</v>
       </c>
       <c r="H7">
-        <v>0.4914779360261499</v>
+        <v>0.49147793602614992</v>
       </c>
       <c r="I7">
-        <v>0.6161568993696007</v>
+        <v>0.61615689936960072</v>
       </c>
       <c r="J7">
-        <v>0.5790333878122811</v>
+        <v>0.57903338781228109</v>
       </c>
       <c r="K7">
-        <v>0.5583469530702778</v>
+        <v>0.55834695307027782</v>
       </c>
       <c r="L7">
-        <v>0.6368900303525566</v>
+        <v>0.63689003035255665</v>
       </c>
       <c r="M7">
-        <v>0.6375904739668457</v>
+        <v>0.63759047396684565</v>
       </c>
       <c r="N7">
-        <v>0.5053934158300257</v>
+        <v>0.50539341583002573</v>
       </c>
       <c r="O7">
-        <v>0.5317300957272939</v>
+        <v>0.53173009572729391</v>
       </c>
       <c r="P7">
         <v>0.6628531403222041</v>
       </c>
       <c r="Q7">
-        <v>0.5795937427037123</v>
+        <v>0.57959374270371233</v>
       </c>
       <c r="R7">
-        <v>0.45991127714219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>0.45991127714218999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2929318276871602</v>
+        <v>0.45211208699289002</v>
       </c>
       <c r="C8">
-        <v>0.6002509410288582</v>
+        <v>0.60025094102885823</v>
       </c>
       <c r="D8">
-        <v>0.6163948138854036</v>
+        <v>0.61639481388540363</v>
       </c>
       <c r="E8">
-        <v>0.6167294019238813</v>
+        <v>0.61672940192388126</v>
       </c>
       <c r="F8">
-        <v>0.5899623588456713</v>
+        <v>0.58996235884567128</v>
       </c>
       <c r="G8">
-        <v>0.5891258887494772</v>
+        <v>0.58912588874947724</v>
       </c>
       <c r="H8">
-        <v>0.8940192388122125</v>
+        <v>0.89401923881221246</v>
       </c>
       <c r="I8">
-        <v>0.6517774989544124</v>
+        <v>0.65177749895441239</v>
       </c>
       <c r="J8">
         <v>0.5692179004600586</v>
       </c>
       <c r="K8">
-        <v>0.59155165202844</v>
+        <v>0.59155165202843996</v>
       </c>
       <c r="L8">
-        <v>0.5206189878711837</v>
+        <v>0.52061898787118366</v>
       </c>
       <c r="M8">
-        <v>0.5235466332078628</v>
+        <v>0.52354663320786277</v>
       </c>
       <c r="N8">
-        <v>0.5591802593057298</v>
+        <v>0.55918025930572979</v>
       </c>
       <c r="O8">
-        <v>0.5895441237975743</v>
+        <v>0.58954412379757426</v>
       </c>
       <c r="P8">
-        <v>0.6342952739439565</v>
+        <v>0.63429527394395646</v>
       </c>
       <c r="Q8">
-        <v>0.5713090757005437</v>
+        <v>0.57130907570054368</v>
       </c>
       <c r="R8">
-        <v>0.4568799665411962</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>0.45687996654119623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0.101469402383299</v>
+        <v>0.57252934324881288</v>
       </c>
       <c r="C9">
         <v>0.5664366992205</v>
       </c>
       <c r="D9">
-        <v>0.5450676462682555</v>
+        <v>0.54506764626825555</v>
       </c>
       <c r="E9">
-        <v>0.5922408386345309</v>
+        <v>0.59224083863453092</v>
       </c>
       <c r="F9">
-        <v>0.6112355523698594</v>
+        <v>0.61123555236985938</v>
       </c>
       <c r="G9">
-        <v>0.6711764178837022</v>
+        <v>0.67117641788370219</v>
       </c>
       <c r="H9">
-        <v>0.5743660962279366</v>
+        <v>0.57436609622793655</v>
       </c>
       <c r="I9">
-        <v>0.693083057073739</v>
+        <v>0.69308305707373896</v>
       </c>
       <c r="J9">
         <v>0.6097123913627811</v>
       </c>
       <c r="K9">
-        <v>0.5677806648149807</v>
+        <v>0.56778066481498068</v>
       </c>
       <c r="L9">
-        <v>0.5181435355254905</v>
+        <v>0.51814353552549053</v>
       </c>
       <c r="M9">
-        <v>0.5470387958068273</v>
+        <v>0.54703879580682735</v>
       </c>
       <c r="N9">
-        <v>0.4740166651733715</v>
+        <v>0.47401666517337149</v>
       </c>
       <c r="O9">
-        <v>0.5938535973479079</v>
+        <v>0.59385359734790788</v>
       </c>
       <c r="P9">
-        <v>0.7003852701370845</v>
+        <v>0.70038527013708451</v>
       </c>
       <c r="Q9">
-        <v>0.5904040856554073</v>
+        <v>0.59040408565540725</v>
       </c>
       <c r="R9">
-        <v>0.4326673237165128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>0.43266732371651279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.21425492168415</v>
+        <v>0.49461129472625381</v>
       </c>
       <c r="C10">
-        <v>0.4387124586865929</v>
+        <v>0.43871245868659292</v>
       </c>
       <c r="D10">
-        <v>0.4539445322603822</v>
+        <v>0.45394453226038223</v>
       </c>
       <c r="E10">
-        <v>0.4364851271734445</v>
+        <v>0.43648512717344451</v>
       </c>
       <c r="F10">
-        <v>0.5663888489725535</v>
+        <v>0.56638884897255348</v>
       </c>
       <c r="G10">
-        <v>0.8009771518896394</v>
+        <v>0.80097715188963936</v>
       </c>
       <c r="H10">
-        <v>0.4737749676677683</v>
+        <v>0.47377496766776828</v>
       </c>
       <c r="I10">
-        <v>0.5781003017674954</v>
+        <v>0.57810030176749538</v>
       </c>
       <c r="J10">
-        <v>0.554318149159362</v>
+        <v>0.55431814915936195</v>
       </c>
       <c r="K10">
-        <v>0.5592757580112085</v>
+        <v>0.55927575801120855</v>
       </c>
       <c r="L10">
-        <v>0.581477223739043</v>
+        <v>0.58147722373904298</v>
       </c>
       <c r="M10">
-        <v>0.6109354792355224</v>
+        <v>0.61093547923552238</v>
       </c>
       <c r="N10">
-        <v>0.5011495904583992</v>
+        <v>0.50114959045839924</v>
       </c>
       <c r="O10">
-        <v>0.4719787325765196</v>
+        <v>0.47197873257651962</v>
       </c>
       <c r="P10">
-        <v>0.6088518465296738</v>
+        <v>0.60885184652967383</v>
       </c>
       <c r="Q10">
-        <v>0.5579824687455094</v>
+        <v>0.55798246874550939</v>
       </c>
       <c r="R10">
-        <v>0.4331800546055468</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>0.43318005460554682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>0.4702770780856423</v>
+        <v>0.70609571788413095</v>
       </c>
       <c r="C11">
-        <v>0.8278589420654912</v>
+        <v>0.82785894206549115</v>
       </c>
       <c r="D11">
-        <v>0.7712342569269521</v>
+        <v>0.77123425692695213</v>
       </c>
       <c r="E11">
-        <v>0.8329974811083123</v>
+        <v>0.83299748110831229</v>
       </c>
       <c r="F11">
-        <v>0.7297229219143577</v>
+        <v>0.72972292191435773</v>
       </c>
       <c r="G11">
-        <v>0.6760705289672544</v>
+        <v>0.67607052896725439</v>
       </c>
       <c r="H11">
-        <v>0.601360201511335</v>
+        <v>0.60136020151133496</v>
       </c>
       <c r="I11">
-        <v>0.9090176322418136</v>
+        <v>0.90901763224181364</v>
       </c>
       <c r="J11">
-        <v>0.7426700251889169</v>
+        <v>0.74267002518891689</v>
       </c>
       <c r="K11">
-        <v>0.6934508816120907</v>
+        <v>0.69345088161209067</v>
       </c>
       <c r="L11">
-        <v>0.6066498740554156</v>
+        <v>0.60664987405541559</v>
       </c>
       <c r="M11">
-        <v>0.5818639798488665</v>
+        <v>0.58186397984886651</v>
       </c>
       <c r="N11">
-        <v>0.6738539042821159</v>
+        <v>0.67385390428211589</v>
       </c>
       <c r="O11">
-        <v>0.6845340050377834</v>
+        <v>0.68453400503778339</v>
       </c>
       <c r="P11">
         <v>0.7901259445843829</v>
       </c>
       <c r="Q11">
-        <v>0.6717380352644836</v>
+        <v>0.67173803526448361</v>
       </c>
       <c r="R11">
-        <v>0.5247858942065491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>0.52478589420654909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>0.6431144536434305</v>
+        <v>0.80092270745117866</v>
       </c>
       <c r="C12">
         <v>0.8674714023889275</v>
       </c>
       <c r="D12">
-        <v>0.7777918220312203</v>
+        <v>0.77779182203122033</v>
       </c>
       <c r="E12">
-        <v>0.8564747519433735</v>
+        <v>0.85647475194337352</v>
       </c>
       <c r="F12">
-        <v>0.8094545914175567</v>
+        <v>0.80945459141755671</v>
       </c>
       <c r="G12">
-        <v>0.7335524236870379</v>
+        <v>0.73355242368703788</v>
       </c>
       <c r="H12">
-        <v>0.5896479807874613</v>
+        <v>0.58964798078746128</v>
       </c>
       <c r="I12">
-        <v>0.8070530240788725</v>
+        <v>0.80705302407887247</v>
       </c>
       <c r="J12">
-        <v>0.9735195601339822</v>
+        <v>0.97351956013398222</v>
       </c>
       <c r="K12">
-        <v>0.8136257346900082</v>
+        <v>0.81362573469000821</v>
       </c>
       <c r="L12">
         <v>0.6806547430954939</v>
       </c>
       <c r="M12">
-        <v>0.7283700941667194</v>
+        <v>0.72837009416671938</v>
       </c>
       <c r="N12">
-        <v>0.808380206029198</v>
+        <v>0.80838020602919802</v>
       </c>
       <c r="O12">
-        <v>0.6688997029640397</v>
+        <v>0.66889970296403967</v>
       </c>
       <c r="P12">
-        <v>0.8402325728370094</v>
+        <v>0.84023257283700936</v>
       </c>
       <c r="Q12">
-        <v>0.7315300511913038</v>
+        <v>0.73153005119130377</v>
       </c>
       <c r="R12">
-        <v>0.6125260696454529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>0.61252606964545286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>0.4111348157873144</v>
+        <v>0.69885944038729797</v>
       </c>
       <c r="C13">
-        <v>0.6964388282596209</v>
+        <v>0.69643882825962089</v>
       </c>
       <c r="D13">
-        <v>0.6887256913104127</v>
+        <v>0.68872569131041272</v>
       </c>
       <c r="E13">
-        <v>0.6591860178879133</v>
+        <v>0.65918601788791331</v>
       </c>
       <c r="F13">
         <v>0.672027570361861</v>
@@ -1135,110 +1152,110 @@
         <v>0.5811110199392796</v>
       </c>
       <c r="I13">
-        <v>0.7226142610978912</v>
+        <v>0.72261426109789118</v>
       </c>
       <c r="J13">
-        <v>0.7240091901206204</v>
+        <v>0.72400919012062037</v>
       </c>
       <c r="K13">
-        <v>0.9456387954377615</v>
+        <v>0.94563879543776153</v>
       </c>
       <c r="L13">
         <v>0.6292770985476327</v>
       </c>
       <c r="M13">
-        <v>0.7147780421760893</v>
+        <v>0.71477804217608931</v>
       </c>
       <c r="N13">
-        <v>0.7069828505784853</v>
+        <v>0.70698285057848531</v>
       </c>
       <c r="O13">
-        <v>0.5761877410355296</v>
+        <v>0.57618774103552961</v>
       </c>
       <c r="P13">
-        <v>0.7304504800196931</v>
+        <v>0.73045048001969315</v>
       </c>
       <c r="Q13">
         <v>0.6451136456880282</v>
       </c>
       <c r="R13">
-        <v>0.5845573151719045</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>0.58455731517190446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0.56190509765211871</v>
+      </c>
+      <c r="C14">
+        <v>0.58961432701121064</v>
+      </c>
+      <c r="D14">
+        <v>0.52012973277867869</v>
+      </c>
+      <c r="E14">
+        <v>0.56715786504970744</v>
+      </c>
+      <c r="F14">
+        <v>0.56980187548473527</v>
+      </c>
+      <c r="G14">
+        <v>0.57198759077769157</v>
+      </c>
+      <c r="H14">
+        <v>0.50433617711344569</v>
+      </c>
+      <c r="I14">
+        <v>0.57346823662130719</v>
+      </c>
+      <c r="J14">
+        <v>0.58538391031516601</v>
+      </c>
+      <c r="K14">
+        <v>0.5846435873933582</v>
+      </c>
+      <c r="L14">
+        <v>0.95409997884791653</v>
+      </c>
+      <c r="M14">
+        <v>0.61693576817316509</v>
+      </c>
+      <c r="N14">
+        <v>0.57322146231403792</v>
+      </c>
+      <c r="O14">
+        <v>0.49104561799337237</v>
+      </c>
+      <c r="P14">
+        <v>0.59116547979976031</v>
+      </c>
+      <c r="Q14">
+        <v>0.52749770852428968</v>
+      </c>
+      <c r="R14">
+        <v>0.4047098639215963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>0.306319343945972</v>
-      </c>
-      <c r="C14">
-        <v>0.6599734684032803</v>
-      </c>
-      <c r="D14">
-        <v>0.5597563917028461</v>
-      </c>
-      <c r="E14">
-        <v>0.643451519536903</v>
-      </c>
-      <c r="F14">
-        <v>0.5960564399421129</v>
-      </c>
-      <c r="G14">
-        <v>0.6766160154365654</v>
-      </c>
-      <c r="H14">
-        <v>0.5668113844669561</v>
-      </c>
-      <c r="I14">
-        <v>0.6447780993728895</v>
-      </c>
-      <c r="J14">
-        <v>0.6721538832609745</v>
-      </c>
-      <c r="K14">
-        <v>0.6590086830680174</v>
-      </c>
-      <c r="L14">
-        <v>0.6441148094548963</v>
-      </c>
-      <c r="M14">
-        <v>0.7013989387361312</v>
-      </c>
-      <c r="N14">
-        <v>0.6890376266280752</v>
-      </c>
-      <c r="O14">
-        <v>0.523818137964303</v>
-      </c>
-      <c r="P14">
-        <v>0.6825856246985046</v>
-      </c>
-      <c r="Q14">
-        <v>0.6037747226242162</v>
-      </c>
-      <c r="R14">
-        <v>0.4288470815243609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
       <c r="B15">
-        <v>0.1397012019320777</v>
+        <v>0.43621522447298461</v>
       </c>
       <c r="C15">
-        <v>0.3221627288725802</v>
+        <v>0.32216272887258018</v>
       </c>
       <c r="D15">
-        <v>0.2988355112891751</v>
+        <v>0.29883551128917513</v>
       </c>
       <c r="E15">
-        <v>0.4429175871494365</v>
+        <v>0.44291758714943652</v>
       </c>
       <c r="F15">
-        <v>0.4474107911783428</v>
+        <v>0.44741079117834281</v>
       </c>
       <c r="G15">
         <v>0.5619500505485453</v>
@@ -1247,314 +1264,314 @@
         <v>0.3615905942262328</v>
       </c>
       <c r="I15">
-        <v>0.4402965514659078</v>
+        <v>0.44029655146590779</v>
       </c>
       <c r="J15">
-        <v>0.4651963904594301</v>
+        <v>0.46519639045943012</v>
       </c>
       <c r="K15">
-        <v>0.5471224772531545</v>
+        <v>0.54712247725315455</v>
       </c>
       <c r="L15">
-        <v>0.582132025311716</v>
+        <v>0.58213202531171604</v>
       </c>
       <c r="M15">
         <v>0.9370951435953121</v>
       </c>
       <c r="N15">
-        <v>0.5462612798142809</v>
+        <v>0.54626127981428085</v>
       </c>
       <c r="O15">
-        <v>0.3503201407870596</v>
+        <v>0.35032014078705959</v>
       </c>
       <c r="P15">
-        <v>0.4708503388624705</v>
+        <v>0.47085033886247052</v>
       </c>
       <c r="Q15">
-        <v>0.469390047553076</v>
+        <v>0.46939004755307601</v>
       </c>
       <c r="R15">
-        <v>0.3926685887595013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>0.39266858875950128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>0.59469475326701771</v>
+      </c>
+      <c r="C16">
+        <v>0.70196996294129121</v>
+      </c>
+      <c r="D16">
+        <v>0.65837721864638188</v>
+      </c>
+      <c r="E16">
+        <v>0.67797932514140824</v>
+      </c>
+      <c r="F16">
+        <v>0.70031207333723422</v>
+      </c>
+      <c r="G16">
+        <v>0.69582601911449193</v>
+      </c>
+      <c r="H16">
+        <v>0.64784474351472598</v>
+      </c>
+      <c r="I16">
+        <v>0.68626877316169299</v>
+      </c>
+      <c r="J16">
+        <v>0.72683830700214547</v>
+      </c>
+      <c r="K16">
+        <v>0.74292958845328649</v>
+      </c>
+      <c r="L16">
+        <v>0.61858786814901501</v>
+      </c>
+      <c r="M16">
+        <v>0.67749171055197976</v>
+      </c>
+      <c r="N16">
+        <v>0.93251414082309347</v>
+      </c>
+      <c r="O16">
+        <v>0.58074897600936215</v>
+      </c>
+      <c r="P16">
+        <v>0.70392042129900523</v>
+      </c>
+      <c r="Q16">
+        <v>0.66715428125609522</v>
+      </c>
+      <c r="R16">
+        <v>0.52243027111371176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>0.497824447409642</v>
-      </c>
-      <c r="C16">
-        <v>0.7227475778847827</v>
-      </c>
-      <c r="D16">
-        <v>0.6530138655218426</v>
-      </c>
-      <c r="E16">
-        <v>0.7193827232116957</v>
-      </c>
-      <c r="F16">
-        <v>0.6631084295411035</v>
-      </c>
-      <c r="G16">
-        <v>0.6443696698961536</v>
-      </c>
-      <c r="H16">
-        <v>0.5453965307188026</v>
-      </c>
-      <c r="I16">
-        <v>0.6719846841097639</v>
-      </c>
-      <c r="J16">
-        <v>0.7062713929338051</v>
-      </c>
-      <c r="K16">
-        <v>0.6865463827812265</v>
-      </c>
-      <c r="L16">
-        <v>0.5756222080408424</v>
-      </c>
-      <c r="M16">
-        <v>0.6616580611475315</v>
-      </c>
-      <c r="N16">
-        <v>0.7566281835586239</v>
-      </c>
-      <c r="O16">
-        <v>0.6034692811974242</v>
-      </c>
-      <c r="P16">
-        <v>0.7050530834832047</v>
-      </c>
-      <c r="Q16">
-        <v>0.6577130591170157</v>
-      </c>
-      <c r="R16">
-        <v>0.5105876892730754</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>0.59759265958496399</v>
+      </c>
+      <c r="C17">
+        <v>0.70135166244614722</v>
+      </c>
+      <c r="D17">
+        <v>0.68471075739139009</v>
+      </c>
+      <c r="E17">
+        <v>0.66941822606636625</v>
+      </c>
+      <c r="F17">
+        <v>0.68148781530568614</v>
+      </c>
+      <c r="G17">
+        <v>0.49988489492551058</v>
+      </c>
+      <c r="H17">
+        <v>0.54648600651165846</v>
+      </c>
+      <c r="I17">
+        <v>0.68224422008090246</v>
+      </c>
+      <c r="J17">
+        <v>0.54549939158746341</v>
+      </c>
+      <c r="K17">
+        <v>0.53306804354260529</v>
+      </c>
+      <c r="L17">
+        <v>0.46390633735652981</v>
+      </c>
+      <c r="M17">
+        <v>0.43355148485546091</v>
+      </c>
+      <c r="N17">
+        <v>0.54004012234025056</v>
+      </c>
+      <c r="O17">
+        <v>0.97128950570592298</v>
+      </c>
+      <c r="P17">
+        <v>0.80705100799158092</v>
+      </c>
+      <c r="Q17">
+        <v>0.65142894728187584</v>
+      </c>
+      <c r="R17">
+        <v>0.48623672180747862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>0.2739145101440895</v>
-      </c>
-      <c r="C17">
-        <v>0.8124427738422245</v>
-      </c>
-      <c r="D17">
-        <v>0.7757216519685798</v>
-      </c>
-      <c r="E17">
-        <v>0.738904149197629</v>
-      </c>
-      <c r="F17">
-        <v>0.7453134788684883</v>
-      </c>
-      <c r="G17">
-        <v>0.6514866753409474</v>
-      </c>
-      <c r="H17">
-        <v>0.595489374006072</v>
-      </c>
-      <c r="I17">
-        <v>0.7905643101537275</v>
-      </c>
-      <c r="J17">
-        <v>0.6513902944436413</v>
-      </c>
-      <c r="K17">
-        <v>0.6185244084622428</v>
-      </c>
-      <c r="L17">
-        <v>0.550383114066792</v>
-      </c>
-      <c r="M17">
-        <v>0.5343356946653174</v>
-      </c>
-      <c r="N17">
-        <v>0.6247891667871428</v>
-      </c>
-      <c r="O17">
-        <v>0.7760589851091514</v>
-      </c>
-      <c r="P17">
-        <v>0.7556744253288998</v>
-      </c>
-      <c r="Q17">
-        <v>0.7567346151992675</v>
-      </c>
-      <c r="R17">
-        <v>0.6393426822803721</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
       <c r="B18">
-        <v>0.3111580894496928</v>
+        <v>0.55096782717843695</v>
       </c>
       <c r="C18">
-        <v>0.6453722666314329</v>
+        <v>0.64537226663143288</v>
       </c>
       <c r="D18">
-        <v>0.5444936248926472</v>
+        <v>0.54449362489264719</v>
       </c>
       <c r="E18">
         <v>0.5448239413357997</v>
       </c>
       <c r="F18">
-        <v>0.6591134306665786</v>
+        <v>0.65911343066657857</v>
       </c>
       <c r="G18">
-        <v>0.5167470436678337</v>
+        <v>0.51674704366783375</v>
       </c>
       <c r="H18">
         <v>0.4899253484838475</v>
       </c>
       <c r="I18">
-        <v>0.6521767853603753</v>
+        <v>0.65217678536037527</v>
       </c>
       <c r="J18">
-        <v>0.5157560943383762</v>
+        <v>0.51575609433837621</v>
       </c>
       <c r="K18">
-        <v>0.4774393869326815</v>
+        <v>0.47743938693268151</v>
       </c>
       <c r="L18">
-        <v>0.4611878179295765</v>
+        <v>0.46118781792957653</v>
       </c>
       <c r="M18">
-        <v>0.4277597938825395</v>
+        <v>0.42775979388253949</v>
       </c>
       <c r="N18">
-        <v>0.4889343991543899</v>
+        <v>0.48893439915438991</v>
       </c>
       <c r="O18">
-        <v>0.678536037523948</v>
+        <v>0.67853603752394798</v>
       </c>
       <c r="P18">
-        <v>0.9724516086410782</v>
+        <v>0.97245160864107816</v>
       </c>
       <c r="Q18">
-        <v>0.6459668362291074</v>
+        <v>0.64596683622910744</v>
       </c>
       <c r="R18">
         <v>0.4781660831076171</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>0.03289770166741775</v>
+        <v>0.23614240648940971</v>
       </c>
       <c r="C19">
-        <v>0.3411446597566472</v>
+        <v>0.34114465975664721</v>
       </c>
       <c r="D19">
         <v>0.3267237494366832</v>
       </c>
       <c r="E19">
-        <v>0.07165389815232087</v>
+        <v>7.1653898152320872E-2</v>
       </c>
       <c r="F19">
-        <v>0.3970256872465074</v>
+        <v>0.39702568724650739</v>
       </c>
       <c r="G19">
-        <v>0.2429022082018927</v>
+        <v>0.24290220820189271</v>
       </c>
       <c r="H19">
-        <v>0.3181613339342046</v>
+        <v>0.31816133393420459</v>
       </c>
       <c r="I19">
-        <v>0.3826047769265435</v>
+        <v>0.38260477692654349</v>
       </c>
       <c r="J19">
-        <v>0.2852636322667869</v>
+        <v>0.28526363226678692</v>
       </c>
       <c r="K19">
-        <v>0.3483551149166291</v>
+        <v>0.34835511491662913</v>
       </c>
       <c r="L19">
-        <v>0.2924740874267688</v>
+        <v>0.29247408742676878</v>
       </c>
       <c r="M19">
-        <v>0.2748986029743127</v>
+        <v>0.27489860297431268</v>
       </c>
       <c r="N19">
-        <v>0.3497070752591258</v>
+        <v>0.34970707525912581</v>
       </c>
       <c r="O19">
-        <v>0.2875168995042812</v>
+        <v>0.28751689950428122</v>
       </c>
       <c r="P19">
-        <v>0.3546642631816133</v>
+        <v>0.35466426318161332</v>
       </c>
       <c r="Q19">
-        <v>0.829202343397927</v>
+        <v>0.82920234339792698</v>
       </c>
       <c r="R19">
-        <v>0.3465525011266336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>0.34655250112663361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>0.1267045967669105</v>
+        <v>0.14223787591438641</v>
       </c>
       <c r="C20">
-        <v>0.3103043438995756</v>
+        <v>0.31030434389957562</v>
       </c>
       <c r="D20">
-        <v>0.2145759956651314</v>
+        <v>0.21457599566513141</v>
       </c>
       <c r="E20">
-        <v>0.1283301724916464</v>
+        <v>0.12833017249164641</v>
       </c>
       <c r="F20">
-        <v>0.2441975977603179</v>
+        <v>0.24419759776031791</v>
       </c>
       <c r="G20">
         <v>0.2059965682290256</v>
       </c>
       <c r="H20">
-        <v>0.3135554953490473</v>
+        <v>0.31355549534904731</v>
       </c>
       <c r="I20">
-        <v>0.3171678858484602</v>
+        <v>0.31716788584846017</v>
       </c>
       <c r="J20">
-        <v>0.2586471597579698</v>
+        <v>0.25864715975796981</v>
       </c>
       <c r="K20">
-        <v>0.3611487401788133</v>
+        <v>0.36114874017881332</v>
       </c>
       <c r="L20">
         <v>0.180258285920708</v>
       </c>
       <c r="M20">
-        <v>0.309310936512237</v>
+        <v>0.30931093651223701</v>
       </c>
       <c r="N20">
-        <v>0.3182516029982841</v>
+        <v>0.31825160299828409</v>
       </c>
       <c r="O20">
-        <v>0.1477467714259912</v>
+        <v>0.14774677142599121</v>
       </c>
       <c r="P20">
         <v>0.219181793551883</v>
       </c>
       <c r="Q20">
-        <v>0.3744242752641561</v>
+        <v>0.37442427526415611</v>
       </c>
       <c r="R20">
-        <v>0.9274812607242843</v>
+        <v>0.92748126072428427</v>
       </c>
     </row>
   </sheetData>

--- a/results/acl/xlm-roberta/results_pos.xlsx
+++ b/results/acl/xlm-roberta/results_pos.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aturt\Documents\typology_of_crosslingual\results\acl\xlm-roberta\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -24,6 +19,9 @@
     <t>Language</t>
   </si>
   <si>
+    <t>German</t>
+  </si>
+  <si>
     <t>Spanish</t>
   </si>
   <si>
@@ -70,9 +68,6 @@
   </si>
   <si>
     <t>Maltese</t>
-  </si>
-  <si>
-    <t>German</t>
   </si>
   <si>
     <t>Thai</t>
@@ -84,8 +79,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,19 +143,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -202,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,10 +221,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,7 +255,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,186 +430,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2">
+        <v>0.9787187739463602</v>
+      </c>
+      <c r="C2">
+        <v>0.810360153256705</v>
+      </c>
+      <c r="D2">
+        <v>0.7337164750957854</v>
+      </c>
+      <c r="E2">
+        <v>0.8548934865900383</v>
+      </c>
+      <c r="F2">
+        <v>0.8065409961685823</v>
+      </c>
+      <c r="G2">
+        <v>0.6467310344827586</v>
+      </c>
+      <c r="H2">
+        <v>0.557391570881226</v>
+      </c>
+      <c r="I2">
+        <v>0.7021180076628353</v>
+      </c>
+      <c r="J2">
+        <v>0.6832613026819924</v>
+      </c>
+      <c r="K2">
+        <v>0.6263785440613027</v>
+      </c>
+      <c r="L2">
+        <v>0.5810298850574712</v>
+      </c>
+      <c r="M2">
+        <v>0.5382283524904214</v>
+      </c>
+      <c r="N2">
+        <v>0.6748842911877395</v>
+      </c>
+      <c r="O2">
+        <v>0.6471846743295019</v>
+      </c>
+      <c r="P2">
+        <v>0.7383662835249042</v>
+      </c>
+      <c r="Q2">
+        <v>0.6823540229885058</v>
+      </c>
+      <c r="R2">
+        <v>0.5052137931034483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3">
+        <v>0.8256851196000076</v>
+      </c>
+      <c r="C3">
+        <v>0.9869131266453287</v>
+      </c>
+      <c r="D3">
+        <v>0.8633359216681502</v>
+      </c>
+      <c r="E3">
+        <v>0.8864983617734513</v>
+      </c>
+      <c r="F3">
+        <v>0.7844169617999659</v>
+      </c>
+      <c r="G3">
+        <v>0.5815041381792011</v>
+      </c>
+      <c r="H3">
+        <v>0.5821480653775497</v>
+      </c>
+      <c r="I3">
+        <v>0.8327115016761046</v>
+      </c>
+      <c r="J3">
+        <v>0.626048749076722</v>
+      </c>
+      <c r="K3">
+        <v>0.5896668623700309</v>
+      </c>
+      <c r="L3">
+        <v>0.5204068104770743</v>
+      </c>
+      <c r="M3">
+        <v>0.4949527471070624</v>
+      </c>
+      <c r="N3">
+        <v>0.6242684797636409</v>
+      </c>
+      <c r="O3">
+        <v>0.6516353856934528</v>
+      </c>
+      <c r="P3">
+        <v>0.7544175299710233</v>
+      </c>
+      <c r="Q3">
+        <v>0.7061608681653757</v>
+      </c>
+      <c r="R3">
+        <v>0.402435559932577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>0.90428037124255434</v>
-      </c>
-      <c r="C2">
-        <v>0.82264394883871261</v>
-      </c>
-      <c r="D2">
-        <v>0.76326360991827125</v>
-      </c>
-      <c r="E2">
-        <v>0.81414785057948935</v>
-      </c>
-      <c r="F2">
-        <v>0.81931938865032095</v>
-      </c>
-      <c r="G2">
-        <v>0.64131689523017965</v>
-      </c>
-      <c r="H2">
-        <v>0.54259592741376927</v>
-      </c>
-      <c r="I2">
-        <v>0.75227409151775404</v>
-      </c>
-      <c r="J2">
-        <v>0.69395576487971555</v>
-      </c>
-      <c r="K2">
-        <v>0.64441058318326638</v>
-      </c>
-      <c r="L2">
-        <v>0.59805143833402596</v>
-      </c>
-      <c r="M2">
-        <v>0.5526157824260054</v>
-      </c>
-      <c r="N2">
-        <v>0.68398208431454033</v>
-      </c>
-      <c r="O2">
-        <v>0.65082883132474489</v>
-      </c>
-      <c r="P2">
-        <v>0.75813824629450066</v>
-      </c>
-      <c r="Q2">
-        <v>0.69635683612688737</v>
-      </c>
-      <c r="R2">
-        <v>0.48880269658770842</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.81378410239137755</v>
-      </c>
-      <c r="C3">
-        <v>0.8960929605927922</v>
-      </c>
-      <c r="D3">
-        <v>0.81618390030313237</v>
-      </c>
-      <c r="E3">
-        <v>0.85083361401145163</v>
-      </c>
-      <c r="F3">
-        <v>0.79808016167059614</v>
-      </c>
-      <c r="G3">
-        <v>0.57873021219265741</v>
-      </c>
-      <c r="H3">
-        <v>0.58462445267766927</v>
-      </c>
-      <c r="I3">
-        <v>0.75934658134051869</v>
-      </c>
-      <c r="J3">
-        <v>0.59557089929269114</v>
-      </c>
-      <c r="K3">
-        <v>0.57414112495789826</v>
-      </c>
-      <c r="L3">
-        <v>0.51599865274503198</v>
-      </c>
-      <c r="M3">
-        <v>0.50286291680700568</v>
-      </c>
-      <c r="N3">
-        <v>0.60335971707645675</v>
-      </c>
-      <c r="O3">
-        <v>0.65746042438531493</v>
-      </c>
-      <c r="P3">
-        <v>0.76494610980127986</v>
-      </c>
-      <c r="Q3">
-        <v>0.71215055574267427</v>
-      </c>
-      <c r="R3">
-        <v>0.40906028965981811</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
       </c>
       <c r="B4">
         <v>0.8269112680380718</v>
@@ -633,37 +616,37 @@
         <v>0.8875498925391464</v>
       </c>
       <c r="D4">
-        <v>0.96369358305188824</v>
+        <v>0.9636935830518882</v>
       </c>
       <c r="E4">
-        <v>0.85600245624808102</v>
+        <v>0.856002456248081</v>
       </c>
       <c r="F4">
-        <v>0.81716303346638008</v>
+        <v>0.8171630334663801</v>
       </c>
       <c r="G4">
-        <v>0.68360454405894999</v>
+        <v>0.68360454405895</v>
       </c>
       <c r="H4">
         <v>0.6137549892539147</v>
       </c>
       <c r="I4">
-        <v>0.76281854467301202</v>
+        <v>0.7619742093951489</v>
       </c>
       <c r="J4">
-        <v>0.78661344795824373</v>
+        <v>0.7866134479582437</v>
       </c>
       <c r="K4">
-        <v>0.74623887012588275</v>
+        <v>0.7462388701258827</v>
       </c>
       <c r="L4">
-        <v>0.61805342339576297</v>
+        <v>0.618053423395763</v>
       </c>
       <c r="M4">
-        <v>0.63286766963463315</v>
+        <v>0.6328676696346331</v>
       </c>
       <c r="N4">
-        <v>0.74117285845870429</v>
+        <v>0.7411728584587043</v>
       </c>
       <c r="O4">
         <v>0.7724132637396377</v>
@@ -672,475 +655,475 @@
         <v>0.7645072152287381</v>
       </c>
       <c r="Q4">
-        <v>0.73226895916487567</v>
+        <v>0.7322689591648757</v>
       </c>
       <c r="R4">
-        <v>0.64867976665643234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.6486797666564323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.86748314756724287</v>
+        <v>0.8674831475672429</v>
       </c>
       <c r="C5">
-        <v>0.85733831675899352</v>
+        <v>0.8573383167589935</v>
       </c>
       <c r="D5">
-        <v>0.78512313955816593</v>
+        <v>0.7851231395581659</v>
       </c>
       <c r="E5">
-        <v>0.97707401721951548</v>
+        <v>0.9770740172195155</v>
       </c>
       <c r="F5">
-        <v>0.80654742040979777</v>
+        <v>0.8065474204097978</v>
       </c>
       <c r="G5">
-        <v>0.68143896415938066</v>
+        <v>0.6814389641593807</v>
       </c>
       <c r="H5">
-        <v>0.57485149836481342</v>
+        <v>0.5748514983648134</v>
       </c>
       <c r="I5">
-        <v>0.81592471467663352</v>
+        <v>0.7897283588066475</v>
       </c>
       <c r="J5">
-        <v>0.74901555095775207</v>
+        <v>0.7490155509577521</v>
       </c>
       <c r="K5">
         <v>0.6452980044049923</v>
       </c>
       <c r="L5">
-        <v>0.58272709070279649</v>
+        <v>0.5827270907027965</v>
       </c>
       <c r="M5">
-        <v>0.52332643662817857</v>
+        <v>0.5233264366281786</v>
       </c>
       <c r="N5">
-        <v>0.66281786024160716</v>
+        <v>0.6628178602416072</v>
       </c>
       <c r="O5">
-        <v>0.69198424881532405</v>
+        <v>0.6919842488153241</v>
       </c>
       <c r="P5">
-        <v>0.78849362610959084</v>
+        <v>0.7884936261095908</v>
       </c>
       <c r="Q5">
-        <v>0.69435360074751384</v>
+        <v>0.6943536007475138</v>
       </c>
       <c r="R5">
-        <v>0.45434826136287793</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.4543482613628779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.82219373741073065</v>
+        <v>0.8221937374107307</v>
       </c>
       <c r="C6">
-        <v>0.82054568760300306</v>
+        <v>0.8205456876030031</v>
       </c>
       <c r="D6">
-        <v>0.77815418421534521</v>
+        <v>0.7781541842153452</v>
       </c>
       <c r="E6">
-        <v>0.77952755905511806</v>
+        <v>0.7795275590551181</v>
       </c>
       <c r="F6">
-        <v>0.97491301959348109</v>
+        <v>0.9749130195934811</v>
       </c>
       <c r="G6">
-        <v>0.58221937374107302</v>
+        <v>0.582219373741073</v>
       </c>
       <c r="H6">
-        <v>0.49661234206189342</v>
+        <v>0.4966123420618934</v>
       </c>
       <c r="I6">
-        <v>0.66626991393517676</v>
+        <v>0.6918146859549533</v>
       </c>
       <c r="J6">
-        <v>0.67057315509979853</v>
+        <v>0.6705731550997985</v>
       </c>
       <c r="K6">
-        <v>0.60355246291887932</v>
+        <v>0.6035524629188793</v>
       </c>
       <c r="L6">
-        <v>0.54513825306720376</v>
+        <v>0.5451382530672038</v>
       </c>
       <c r="M6">
-        <v>0.49560520051272661</v>
+        <v>0.4956052005127266</v>
       </c>
       <c r="N6">
         <v>0.6399011170115364</v>
       </c>
       <c r="O6">
-        <v>0.66535433070866146</v>
+        <v>0.6653543307086615</v>
       </c>
       <c r="P6">
-        <v>0.72074711591283647</v>
+        <v>0.7207471159128365</v>
       </c>
       <c r="Q6">
-        <v>0.65390954037722027</v>
+        <v>0.6539095403772203</v>
       </c>
       <c r="R6">
         <v>0.4848013184398462</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.53616623861779122</v>
+        <v>0.5348817848817848</v>
       </c>
       <c r="C7">
-        <v>0.41615689936960082</v>
+        <v>0.4408924408924409</v>
       </c>
       <c r="D7">
-        <v>0.37702544945131922</v>
+        <v>0.3677156177156177</v>
       </c>
       <c r="E7">
-        <v>0.6134485173943498</v>
+        <v>0.6205461205461206</v>
       </c>
       <c r="F7">
-        <v>0.61092692038290919</v>
+        <v>0.6103896103896104</v>
       </c>
       <c r="G7">
-        <v>0.94088255895400419</v>
+        <v>0.9638694638694638</v>
       </c>
       <c r="H7">
-        <v>0.49147793602614992</v>
+        <v>0.5282217782217782</v>
       </c>
       <c r="I7">
-        <v>0.61615689936960072</v>
+        <v>0.571012321012321</v>
       </c>
       <c r="J7">
-        <v>0.57903338781228109</v>
+        <v>0.5994838494838495</v>
       </c>
       <c r="K7">
-        <v>0.55834695307027782</v>
+        <v>0.5815850815850816</v>
       </c>
       <c r="L7">
-        <v>0.63689003035255665</v>
+        <v>0.6424408924408924</v>
       </c>
       <c r="M7">
-        <v>0.63759047396684565</v>
+        <v>0.6506826506826506</v>
       </c>
       <c r="N7">
-        <v>0.50539341583002573</v>
+        <v>0.5231435231435232</v>
       </c>
       <c r="O7">
-        <v>0.53173009572729391</v>
+        <v>0.5092407592407593</v>
       </c>
       <c r="P7">
-        <v>0.6628531403222041</v>
+        <v>0.6644189144189144</v>
       </c>
       <c r="Q7">
-        <v>0.57959374270371233</v>
+        <v>0.5777555777555777</v>
       </c>
       <c r="R7">
-        <v>0.45991127714218999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.4756909756909757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.45211208699289002</v>
+        <v>0.45211208699289</v>
       </c>
       <c r="C8">
-        <v>0.60025094102885823</v>
+        <v>0.6002509410288582</v>
       </c>
       <c r="D8">
-        <v>0.61639481388540363</v>
+        <v>0.6163948138854036</v>
       </c>
       <c r="E8">
-        <v>0.61672940192388126</v>
+        <v>0.6167294019238813</v>
       </c>
       <c r="F8">
-        <v>0.58996235884567128</v>
+        <v>0.5899623588456713</v>
       </c>
       <c r="G8">
-        <v>0.58912588874947724</v>
+        <v>0.5891258887494772</v>
       </c>
       <c r="H8">
-        <v>0.89401923881221246</v>
+        <v>0.8940192388122125</v>
       </c>
       <c r="I8">
-        <v>0.65177749895441239</v>
+        <v>0.6311166875784191</v>
       </c>
       <c r="J8">
         <v>0.5692179004600586</v>
       </c>
       <c r="K8">
-        <v>0.59155165202843996</v>
+        <v>0.59155165202844</v>
       </c>
       <c r="L8">
-        <v>0.52061898787118366</v>
+        <v>0.5206189878711837</v>
       </c>
       <c r="M8">
-        <v>0.52354663320786277</v>
+        <v>0.5235466332078628</v>
       </c>
       <c r="N8">
-        <v>0.55918025930572979</v>
+        <v>0.5591802593057298</v>
       </c>
       <c r="O8">
-        <v>0.58954412379757426</v>
+        <v>0.5895441237975743</v>
       </c>
       <c r="P8">
-        <v>0.63429527394395646</v>
+        <v>0.6342952739439565</v>
       </c>
       <c r="Q8">
-        <v>0.57130907570054368</v>
+        <v>0.5713090757005437</v>
       </c>
       <c r="R8">
-        <v>0.45687996654119623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.4568799665411962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0.57252934324881288</v>
+        <v>0.5725293432488129</v>
       </c>
       <c r="C9">
         <v>0.5664366992205</v>
       </c>
       <c r="D9">
-        <v>0.54506764626825555</v>
+        <v>0.5450676462682555</v>
       </c>
       <c r="E9">
-        <v>0.59224083863453092</v>
+        <v>0.5922408386345309</v>
       </c>
       <c r="F9">
-        <v>0.61123555236985938</v>
+        <v>0.6112355523698594</v>
       </c>
       <c r="G9">
-        <v>0.67117641788370219</v>
+        <v>0.6711764178837022</v>
       </c>
       <c r="H9">
-        <v>0.57436609622793655</v>
+        <v>0.5743660962279366</v>
       </c>
       <c r="I9">
-        <v>0.69308305707373896</v>
+        <v>0.6224800645103485</v>
       </c>
       <c r="J9">
         <v>0.6097123913627811</v>
       </c>
       <c r="K9">
-        <v>0.56778066481498068</v>
+        <v>0.5677806648149807</v>
       </c>
       <c r="L9">
-        <v>0.51814353552549053</v>
+        <v>0.5181435355254905</v>
       </c>
       <c r="M9">
-        <v>0.54703879580682735</v>
+        <v>0.5470387958068273</v>
       </c>
       <c r="N9">
-        <v>0.47401666517337149</v>
+        <v>0.4740166651733715</v>
       </c>
       <c r="O9">
-        <v>0.59385359734790788</v>
+        <v>0.5938535973479079</v>
       </c>
       <c r="P9">
-        <v>0.70038527013708451</v>
+        <v>0.7003852701370845</v>
       </c>
       <c r="Q9">
-        <v>0.59040408565540725</v>
+        <v>0.5904040856554073</v>
       </c>
       <c r="R9">
-        <v>0.43266732371651279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.4326673237165128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.49461129472625381</v>
+        <v>0.4946112947262538</v>
       </c>
       <c r="C10">
-        <v>0.43871245868659292</v>
+        <v>0.4387124586865929</v>
       </c>
       <c r="D10">
-        <v>0.45394453226038223</v>
+        <v>0.4539445322603822</v>
       </c>
       <c r="E10">
-        <v>0.43648512717344451</v>
+        <v>0.4364851271734445</v>
       </c>
       <c r="F10">
-        <v>0.56638884897255348</v>
+        <v>0.5663888489725535</v>
       </c>
       <c r="G10">
-        <v>0.80097715188963936</v>
+        <v>0.8009771518896394</v>
       </c>
       <c r="H10">
-        <v>0.47377496766776828</v>
+        <v>0.4737749676677683</v>
       </c>
       <c r="I10">
-        <v>0.57810030176749538</v>
+        <v>0.4883603966087082</v>
       </c>
       <c r="J10">
-        <v>0.55431814915936195</v>
+        <v>0.554318149159362</v>
       </c>
       <c r="K10">
-        <v>0.55927575801120855</v>
+        <v>0.5592757580112085</v>
       </c>
       <c r="L10">
-        <v>0.58147722373904298</v>
+        <v>0.581477223739043</v>
       </c>
       <c r="M10">
-        <v>0.61093547923552238</v>
+        <v>0.6109354792355224</v>
       </c>
       <c r="N10">
-        <v>0.50114959045839924</v>
+        <v>0.5011495904583992</v>
       </c>
       <c r="O10">
-        <v>0.47197873257651962</v>
+        <v>0.4719787325765196</v>
       </c>
       <c r="P10">
-        <v>0.60885184652967383</v>
+        <v>0.6088518465296738</v>
       </c>
       <c r="Q10">
-        <v>0.55798246874550939</v>
+        <v>0.5579824687455094</v>
       </c>
       <c r="R10">
-        <v>0.43318005460554682</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.4331800546055468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>0.70609571788413095</v>
+        <v>0.6864176570458405</v>
       </c>
       <c r="C11">
-        <v>0.82785894206549115</v>
+        <v>0.8378607809847198</v>
       </c>
       <c r="D11">
-        <v>0.77123425692695213</v>
+        <v>0.7747877758913413</v>
       </c>
       <c r="E11">
-        <v>0.83299748110831229</v>
+        <v>0.8368421052631579</v>
       </c>
       <c r="F11">
-        <v>0.72972292191435773</v>
+        <v>0.6973684210526315</v>
       </c>
       <c r="G11">
-        <v>0.67607052896725439</v>
+        <v>0.6874363327674023</v>
       </c>
       <c r="H11">
-        <v>0.60136020151133496</v>
+        <v>0.5953310696095077</v>
       </c>
       <c r="I11">
-        <v>0.90901763224181364</v>
+        <v>0.9286078098471986</v>
       </c>
       <c r="J11">
-        <v>0.74267002518891689</v>
+        <v>0.749660441426146</v>
       </c>
       <c r="K11">
-        <v>0.69345088161209067</v>
+        <v>0.6971986417657046</v>
       </c>
       <c r="L11">
-        <v>0.60664987405541559</v>
+        <v>0.6166383701188455</v>
       </c>
       <c r="M11">
-        <v>0.58186397984886651</v>
+        <v>0.582258064516129</v>
       </c>
       <c r="N11">
-        <v>0.67385390428211589</v>
+        <v>0.6729202037351443</v>
       </c>
       <c r="O11">
-        <v>0.68453400503778339</v>
+        <v>0.6131578947368421</v>
       </c>
       <c r="P11">
-        <v>0.7901259445843829</v>
+        <v>0.7716468590831919</v>
       </c>
       <c r="Q11">
-        <v>0.67173803526448361</v>
+        <v>0.6694397283531409</v>
       </c>
       <c r="R11">
-        <v>0.52478589420654909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5459252971137522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>0.80092270745117866</v>
+        <v>0.77695730379627</v>
       </c>
       <c r="C12">
-        <v>0.8674714023889275</v>
+        <v>0.851415317618101</v>
       </c>
       <c r="D12">
-        <v>0.77779182203122033</v>
+        <v>0.7652182145223895</v>
       </c>
       <c r="E12">
-        <v>0.85647475194337352</v>
+        <v>0.8307299062766259</v>
       </c>
       <c r="F12">
-        <v>0.80945459141755671</v>
+        <v>0.8305879011644419</v>
       </c>
       <c r="G12">
-        <v>0.73355242368703788</v>
+        <v>0.7406986651519455</v>
       </c>
       <c r="H12">
-        <v>0.58964798078746128</v>
+        <v>0.5973681719208558</v>
       </c>
       <c r="I12">
-        <v>0.80705302407887247</v>
+        <v>0.7626147874656821</v>
       </c>
       <c r="J12">
-        <v>0.97351956013398222</v>
+        <v>0.9675754993846445</v>
       </c>
       <c r="K12">
-        <v>0.81362573469000821</v>
+        <v>0.8019975385780554</v>
       </c>
       <c r="L12">
-        <v>0.6806547430954939</v>
+        <v>0.6774590551926536</v>
       </c>
       <c r="M12">
-        <v>0.72837009416671938</v>
+        <v>0.7219066553062576</v>
       </c>
       <c r="N12">
-        <v>0.80838020602919802</v>
+        <v>0.7824008330966582</v>
       </c>
       <c r="O12">
-        <v>0.66889970296403967</v>
+        <v>0.6713055003313453</v>
       </c>
       <c r="P12">
-        <v>0.84023257283700936</v>
+        <v>0.8437943765975575</v>
       </c>
       <c r="Q12">
-        <v>0.73153005119130377</v>
+        <v>0.7154690902205812</v>
       </c>
       <c r="R12">
-        <v>0.61252606964545286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5933920287797028</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>0.69885944038729797</v>
+        <v>0.698859440387298</v>
       </c>
       <c r="C13">
-        <v>0.69643882825962089</v>
+        <v>0.6964388282596209</v>
       </c>
       <c r="D13">
-        <v>0.68872569131041272</v>
+        <v>0.6887256913104127</v>
       </c>
       <c r="E13">
-        <v>0.65918601788791331</v>
+        <v>0.6591860178879133</v>
       </c>
       <c r="F13">
         <v>0.672027570361861</v>
@@ -1152,426 +1135,426 @@
         <v>0.5811110199392796</v>
       </c>
       <c r="I13">
-        <v>0.72261426109789118</v>
+        <v>0.6957003364240584</v>
       </c>
       <c r="J13">
-        <v>0.72400919012062037</v>
+        <v>0.7240091901206204</v>
       </c>
       <c r="K13">
-        <v>0.94563879543776153</v>
+        <v>0.9456387954377615</v>
       </c>
       <c r="L13">
         <v>0.6292770985476327</v>
       </c>
       <c r="M13">
-        <v>0.71477804217608931</v>
+        <v>0.7147780421760893</v>
       </c>
       <c r="N13">
-        <v>0.70698285057848531</v>
+        <v>0.7069828505784853</v>
       </c>
       <c r="O13">
-        <v>0.57618774103552961</v>
+        <v>0.5761877410355296</v>
       </c>
       <c r="P13">
-        <v>0.73045048001969315</v>
+        <v>0.7304504800196931</v>
       </c>
       <c r="Q13">
         <v>0.6451136456880282</v>
       </c>
       <c r="R13">
-        <v>0.58455731517190446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5845573151719045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>0.56190509765211871</v>
+        <v>0.5619050976521187</v>
       </c>
       <c r="C14">
-        <v>0.58961432701121064</v>
+        <v>0.5896143270112106</v>
       </c>
       <c r="D14">
-        <v>0.52012973277867869</v>
+        <v>0.5201297327786787</v>
       </c>
       <c r="E14">
-        <v>0.56715786504970744</v>
+        <v>0.5671578650497074</v>
       </c>
       <c r="F14">
-        <v>0.56980187548473527</v>
+        <v>0.5698018754847353</v>
       </c>
       <c r="G14">
-        <v>0.57198759077769157</v>
+        <v>0.5719875907776916</v>
       </c>
       <c r="H14">
-        <v>0.50433617711344569</v>
+        <v>0.5043361771134457</v>
       </c>
       <c r="I14">
-        <v>0.57346823662130719</v>
+        <v>0.5687090178382571</v>
       </c>
       <c r="J14">
-        <v>0.58538391031516601</v>
+        <v>0.585383910315166</v>
       </c>
       <c r="K14">
         <v>0.5846435873933582</v>
       </c>
       <c r="L14">
-        <v>0.95409997884791653</v>
+        <v>0.9540999788479165</v>
       </c>
       <c r="M14">
-        <v>0.61693576817316509</v>
+        <v>0.6169357681731651</v>
       </c>
       <c r="N14">
-        <v>0.57322146231403792</v>
+        <v>0.5732214623140379</v>
       </c>
       <c r="O14">
-        <v>0.49104561799337237</v>
+        <v>0.4910456179933724</v>
       </c>
       <c r="P14">
-        <v>0.59116547979976031</v>
+        <v>0.5911654797997603</v>
       </c>
       <c r="Q14">
-        <v>0.52749770852428968</v>
+        <v>0.5274977085242897</v>
       </c>
       <c r="R14">
         <v>0.4047098639215963</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>0.43621522447298461</v>
+        <v>0.3985592357685381</v>
       </c>
       <c r="C15">
-        <v>0.32216272887258018</v>
+        <v>0.3056142823584684</v>
       </c>
       <c r="D15">
-        <v>0.29883551128917513</v>
+        <v>0.2662281732049174</v>
       </c>
       <c r="E15">
-        <v>0.44291758714943652</v>
+        <v>0.4128885756792733</v>
       </c>
       <c r="F15">
-        <v>0.44741079117834281</v>
+        <v>0.4604964372406233</v>
       </c>
       <c r="G15">
-        <v>0.5619500505485453</v>
+        <v>0.5389554459321901</v>
       </c>
       <c r="H15">
-        <v>0.3615905942262328</v>
+        <v>0.3994205622112599</v>
       </c>
       <c r="I15">
-        <v>0.44029655146590779</v>
+        <v>0.3534570511314697</v>
       </c>
       <c r="J15">
-        <v>0.46519639045943012</v>
+        <v>0.4625322997416021</v>
       </c>
       <c r="K15">
-        <v>0.54712247725315455</v>
+        <v>0.5369978858350951</v>
       </c>
       <c r="L15">
-        <v>0.58213202531171604</v>
+        <v>0.58656330749354</v>
       </c>
       <c r="M15">
-        <v>0.9370951435953121</v>
+        <v>0.9791715605669093</v>
       </c>
       <c r="N15">
-        <v>0.54626127981428085</v>
+        <v>0.5359799545846058</v>
       </c>
       <c r="O15">
-        <v>0.35032014078705959</v>
+        <v>0.3555712160363323</v>
       </c>
       <c r="P15">
-        <v>0.47085033886247052</v>
+        <v>0.4778795709028267</v>
       </c>
       <c r="Q15">
-        <v>0.46939004755307601</v>
+        <v>0.487902278599953</v>
       </c>
       <c r="R15">
-        <v>0.39266858875950128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.3990290501918409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>0.59469475326701771</v>
+        <v>0.5946947532670177</v>
       </c>
       <c r="C16">
-        <v>0.70196996294129121</v>
+        <v>0.7019699629412912</v>
       </c>
       <c r="D16">
-        <v>0.65837721864638188</v>
+        <v>0.6583772186463819</v>
       </c>
       <c r="E16">
-        <v>0.67797932514140824</v>
+        <v>0.6779793251414082</v>
       </c>
       <c r="F16">
-        <v>0.70031207333723422</v>
+        <v>0.7003120733372342</v>
       </c>
       <c r="G16">
-        <v>0.69582601911449193</v>
+        <v>0.6958260191144919</v>
       </c>
       <c r="H16">
-        <v>0.64784474351472598</v>
+        <v>0.647844743514726</v>
       </c>
       <c r="I16">
-        <v>0.68626877316169299</v>
+        <v>0.6893895065340355</v>
       </c>
       <c r="J16">
-        <v>0.72683830700214547</v>
+        <v>0.7268383070021455</v>
       </c>
       <c r="K16">
-        <v>0.74292958845328649</v>
+        <v>0.7429295884532865</v>
       </c>
       <c r="L16">
-        <v>0.61858786814901501</v>
+        <v>0.618587868149015</v>
       </c>
       <c r="M16">
-        <v>0.67749171055197976</v>
+        <v>0.6774917105519798</v>
       </c>
       <c r="N16">
-        <v>0.93251414082309347</v>
+        <v>0.9325141408230935</v>
       </c>
       <c r="O16">
-        <v>0.58074897600936215</v>
+        <v>0.5807489760093622</v>
       </c>
       <c r="P16">
-        <v>0.70392042129900523</v>
+        <v>0.7039204212990052</v>
       </c>
       <c r="Q16">
-        <v>0.66715428125609522</v>
+        <v>0.6671542812560952</v>
       </c>
       <c r="R16">
-        <v>0.52243027111371176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5224302711137118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>0.59759265958496399</v>
+        <v>0.597592659584964</v>
       </c>
       <c r="C17">
-        <v>0.70135166244614722</v>
+        <v>0.7013516624461472</v>
       </c>
       <c r="D17">
-        <v>0.68471075739139009</v>
+        <v>0.6847107573913901</v>
       </c>
       <c r="E17">
-        <v>0.66941822606636625</v>
+        <v>0.6694182260663663</v>
       </c>
       <c r="F17">
-        <v>0.68148781530568614</v>
+        <v>0.6814878153056861</v>
       </c>
       <c r="G17">
-        <v>0.49988489492551058</v>
+        <v>0.4998848949255106</v>
       </c>
       <c r="H17">
-        <v>0.54648600651165846</v>
+        <v>0.5464860065116585</v>
       </c>
       <c r="I17">
-        <v>0.68224422008090246</v>
+        <v>0.6246587956720492</v>
       </c>
       <c r="J17">
-        <v>0.54549939158746341</v>
+        <v>0.5454993915874634</v>
       </c>
       <c r="K17">
-        <v>0.53306804354260529</v>
+        <v>0.5330680435426053</v>
       </c>
       <c r="L17">
-        <v>0.46390633735652981</v>
+        <v>0.4639063373565298</v>
       </c>
       <c r="M17">
-        <v>0.43355148485546091</v>
+        <v>0.4335514848554609</v>
       </c>
       <c r="N17">
-        <v>0.54004012234025056</v>
+        <v>0.5400401223402506</v>
       </c>
       <c r="O17">
-        <v>0.97128950570592298</v>
+        <v>0.971289505705923</v>
       </c>
       <c r="P17">
-        <v>0.80705100799158092</v>
+        <v>0.8070510079915809</v>
       </c>
       <c r="Q17">
-        <v>0.65142894728187584</v>
+        <v>0.6514289472818758</v>
       </c>
       <c r="R17">
-        <v>0.48623672180747862</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.4862367218074786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>0.55096782717843695</v>
+        <v>0.550967827178437</v>
       </c>
       <c r="C18">
-        <v>0.64537226663143288</v>
+        <v>0.6453722666314329</v>
       </c>
       <c r="D18">
-        <v>0.54449362489264719</v>
+        <v>0.5444936248926472</v>
       </c>
       <c r="E18">
         <v>0.5448239413357997</v>
       </c>
       <c r="F18">
-        <v>0.65911343066657857</v>
+        <v>0.6591134306665786</v>
       </c>
       <c r="G18">
-        <v>0.51674704366783375</v>
+        <v>0.5167470436678337</v>
       </c>
       <c r="H18">
         <v>0.4899253484838475</v>
       </c>
       <c r="I18">
-        <v>0.65217678536037527</v>
+        <v>0.6235713813833652</v>
       </c>
       <c r="J18">
-        <v>0.51575609433837621</v>
+        <v>0.5157560943383762</v>
       </c>
       <c r="K18">
-        <v>0.47743938693268151</v>
+        <v>0.4774393869326815</v>
       </c>
       <c r="L18">
-        <v>0.46118781792957653</v>
+        <v>0.4611878179295765</v>
       </c>
       <c r="M18">
-        <v>0.42775979388253949</v>
+        <v>0.4277597938825395</v>
       </c>
       <c r="N18">
-        <v>0.48893439915438991</v>
+        <v>0.4889343991543899</v>
       </c>
       <c r="O18">
-        <v>0.67853603752394798</v>
+        <v>0.678536037523948</v>
       </c>
       <c r="P18">
-        <v>0.97245160864107816</v>
+        <v>0.9724516086410782</v>
       </c>
       <c r="Q18">
-        <v>0.64596683622910744</v>
+        <v>0.6459668362291074</v>
       </c>
       <c r="R18">
         <v>0.4781660831076171</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>0.23614240648940971</v>
+        <v>0.2361424064894097</v>
       </c>
       <c r="C19">
-        <v>0.34114465975664721</v>
+        <v>0.3411446597566472</v>
       </c>
       <c r="D19">
         <v>0.3267237494366832</v>
       </c>
       <c r="E19">
-        <v>7.1653898152320872E-2</v>
+        <v>0.07165389815232087</v>
       </c>
       <c r="F19">
-        <v>0.39702568724650739</v>
+        <v>0.3970256872465074</v>
       </c>
       <c r="G19">
-        <v>0.24290220820189271</v>
+        <v>0.2429022082018927</v>
       </c>
       <c r="H19">
-        <v>0.31816133393420459</v>
+        <v>0.3181613339342046</v>
       </c>
       <c r="I19">
-        <v>0.38260477692654349</v>
+        <v>0.288418206399279</v>
       </c>
       <c r="J19">
-        <v>0.28526363226678692</v>
+        <v>0.2852636322667869</v>
       </c>
       <c r="K19">
-        <v>0.34835511491662913</v>
+        <v>0.3483551149166291</v>
       </c>
       <c r="L19">
-        <v>0.29247408742676878</v>
+        <v>0.2924740874267688</v>
       </c>
       <c r="M19">
-        <v>0.27489860297431268</v>
+        <v>0.2748986029743127</v>
       </c>
       <c r="N19">
-        <v>0.34970707525912581</v>
+        <v>0.3497070752591258</v>
       </c>
       <c r="O19">
-        <v>0.28751689950428122</v>
+        <v>0.2875168995042812</v>
       </c>
       <c r="P19">
-        <v>0.35466426318161332</v>
+        <v>0.3546642631816133</v>
       </c>
       <c r="Q19">
-        <v>0.82920234339792698</v>
+        <v>0.829202343397927</v>
       </c>
       <c r="R19">
-        <v>0.34655250112663361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.3465525011266336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>0.14223787591438641</v>
+        <v>0.1422378759143864</v>
       </c>
       <c r="C20">
-        <v>0.31030434389957562</v>
+        <v>0.3103043438995756</v>
       </c>
       <c r="D20">
-        <v>0.21457599566513141</v>
+        <v>0.2145759956651314</v>
       </c>
       <c r="E20">
-        <v>0.12833017249164641</v>
+        <v>0.1283301724916464</v>
       </c>
       <c r="F20">
-        <v>0.24419759776031791</v>
+        <v>0.2441975977603179</v>
       </c>
       <c r="G20">
         <v>0.2059965682290256</v>
       </c>
       <c r="H20">
-        <v>0.31355549534904731</v>
+        <v>0.3135554953490473</v>
       </c>
       <c r="I20">
-        <v>0.31716788584846017</v>
+        <v>0.2045516120292604</v>
       </c>
       <c r="J20">
-        <v>0.25864715975796981</v>
+        <v>0.2586471597579698</v>
       </c>
       <c r="K20">
-        <v>0.36114874017881332</v>
+        <v>0.3611487401788133</v>
       </c>
       <c r="L20">
         <v>0.180258285920708</v>
       </c>
       <c r="M20">
-        <v>0.30931093651223701</v>
+        <v>0.309310936512237</v>
       </c>
       <c r="N20">
-        <v>0.31825160299828409</v>
+        <v>0.3182516029982841</v>
       </c>
       <c r="O20">
-        <v>0.14774677142599121</v>
+        <v>0.1477467714259912</v>
       </c>
       <c r="P20">
         <v>0.219181793551883</v>
       </c>
       <c r="Q20">
-        <v>0.37442427526415611</v>
+        <v>0.3744242752641561</v>
       </c>
       <c r="R20">
-        <v>0.92748126072428427</v>
+        <v>0.9274812607242843</v>
       </c>
     </row>
   </sheetData>
